--- a/implementation/Documentation/IMKL3_ExtraRules_v1.xlsx
+++ b/implementation/Documentation/IMKL3_ExtraRules_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\ICEGthema-imkl\implementation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6BBC61-2173-4622-A9E8-5C320224CAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA51C45-A0CE-48B1-AE15-F9E3177AD2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="16" activeTab="25" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="16" activeTab="23" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
   </bookViews>
   <sheets>
     <sheet name="IMKL3 Extra Rules" sheetId="1" r:id="rId1"/>
@@ -5759,8 +5759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2764A8-90B0-4CAB-A949-0A9B643E9D1B}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7326,7 +7326,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8604,7 +8604,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9262,7 +9262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F037272-C335-49D9-940E-9503A9473373}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -9736,7 +9736,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10395,7 +10395,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10710,7 +10710,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11195,7 +11195,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11459,8 +11459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2626C4B8-913D-4090-B23B-9F41B06EEF20}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11768,7 +11768,7 @@
         <v>103</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>59</v>
@@ -11833,7 +11833,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12121,7 +12121,7 @@
         <v>103</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>59</v>
@@ -12165,8 +12165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B0875E-4BBC-4337-B179-D80DFA58D9BF}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12499,7 +12499,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13051,8 +13051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D942B28-BE2C-4879-B771-95BEB360A522}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13824,7 +13824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEEBB16-5094-4A68-A615-43B0896E521F}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
@@ -14777,8 +14777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B140CE-B260-4273-B7CB-D8C81EBB6EBD}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15550,8 +15550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10101923-3348-4496-9274-4B73928D2D00}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16343,8 +16343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0213BD-F2E7-42B7-80C7-ACC383C2E599}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17946,15 +17946,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088F26AC8FFACDA459ED97BA33A2EDD09" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d100541493c99754ab38f69507ec9314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dbdd298-def3-48d5-b10a-519f5ec7909f" xmlns:ns3="b7ca5a17-62b2-45ee-a209-788463db48b0" xmlns:ns4="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f133327a4eb5a6191fb38303f059c04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6dbdd298-def3-48d5-b10a-519f5ec7909f"/>
@@ -18214,15 +18205,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDFEA48-FAC4-456B-938A-80A9A9627A87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18240,4 +18232,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/implementation/Documentation/IMKL3_ExtraRules_v1.xlsx
+++ b/implementation/Documentation/IMKL3_ExtraRules_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\ICEGthema-imkl\implementation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA51C45-A0CE-48B1-AE15-F9E3177AD2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7547C9-130F-4B6A-B63E-4A45E63DB562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="16" activeTab="23" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="15" activeTab="24" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
   </bookViews>
   <sheets>
     <sheet name="IMKL3 Extra Rules" sheetId="1" r:id="rId1"/>
@@ -11459,8 +11459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2626C4B8-913D-4090-B23B-9F41B06EEF20}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11832,8 +11832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52607BE3-DC00-46A5-B151-3ABD17EEE6D5}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12021,7 +12021,7 @@
         <v>101</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>59</v>
@@ -12041,7 +12041,7 @@
         <v>102</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>59</v>
@@ -12121,7 +12121,7 @@
         <v>103</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>59</v>
@@ -12141,7 +12141,7 @@
         <v>104</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>59</v>

--- a/implementation/Documentation/IMKL3_ExtraRules_v1.xlsx
+++ b/implementation/Documentation/IMKL3_ExtraRules_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\ICEGthema-imkl\implementation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7547C9-130F-4B6A-B63E-4A45E63DB562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236D2C8B-7481-45FA-B655-D1A37AF5C8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="15" activeTab="24" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
+    <workbookView xWindow="1056" yWindow="5100" windowWidth="34560" windowHeight="22392" activeTab="1" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
   </bookViews>
   <sheets>
     <sheet name="IMKL3 Extra Rules" sheetId="1" r:id="rId1"/>
@@ -893,10 +893,6 @@
     <t>Mandatory when one or more depth objects are present for any element within the UtilityNetwork. The referenced object(s) must exist.</t>
   </si>
   <si>
-    <t>Mandatory when one or more Document objects are present. The referenced Document(s) must exist.
-Empty networks are not allowed. Each network must contain at least 1 element, ActivityComplex, ProtectedArea, Document, ExtraPlan or Annotation.</t>
-  </si>
-  <si>
     <t>Mandatory when one or more Annotation objects are present. The referenced Annotation(s) must exist.
 Empty networks are not allowed. Each network must contain at least 1 element, ActivityComplex, ProtectedArea, Document, ExtraPlan or Annotation.</t>
   </si>
@@ -904,9 +900,6 @@
     <t>Strict obligation in IMKL. The referenced element(s) must exist.</t>
   </si>
   <si>
-    <t>Mandatory when one or more Document objects are present. The referenced Document(s) must exist.</t>
-  </si>
-  <si>
     <t>Mandatory when one or more Annotation objects are present. The referenced Annotation(s) must exist.</t>
   </si>
   <si>
@@ -920,6 +913,13 @@
   </si>
   <si>
     <t>Recommended to include if applicable. The referenced node(s) must exist.</t>
+  </si>
+  <si>
+    <t>Mandatory when one or more ExtraPlan objects are present. The referenced Document(s) must exist.</t>
+  </si>
+  <si>
+    <t>Mandatory when one or more Document or ExtraPlan objects are present. The referenced Document(s) must exist.
+Empty networks are not allowed. Each network must contain at least 1 element, ActivityComplex, ProtectedArea, Document, ExtraPlan or Annotation.</t>
   </si>
 </sst>
 </file>
@@ -1424,83 +1424,83 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="157" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>45499</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>235</v>
       </c>
@@ -1515,20 +1515,20 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>118</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>119</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>139</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>140</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>141</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>142</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>143</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>78</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>79</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>99</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>123</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>124</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>125</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>126</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>127</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>101</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>102</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>63</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>64</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>65</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>103</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>104</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>43</v>
       </c>
@@ -2275,10 +2275,10 @@
         <v>132</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>44</v>
       </c>
@@ -2295,10 +2295,10 @@
         <v>132</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>144</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>145</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>77</v>
       </c>
@@ -2368,20 +2368,20 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -2391,7 +2391,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>118</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>119</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>139</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>140</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>141</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>142</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>149</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>78</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>79</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>99</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>123</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>124</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>125</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>126</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>127</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>101</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>102</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>63</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>64</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>65</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>103</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>104</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>43</v>
       </c>
@@ -3128,10 +3128,10 @@
         <v>132</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>44</v>
       </c>
@@ -3148,10 +3148,10 @@
         <v>132</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>144</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>145</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>77</v>
       </c>
@@ -3221,20 +3221,20 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3244,7 +3244,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>118</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>119</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>139</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>140</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>141</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>142</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>255</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>78</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>79</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>99</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>123</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>124</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>125</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>126</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>127</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>101</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>102</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>63</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>64</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>65</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>103</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>104</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>43</v>
       </c>
@@ -3981,10 +3981,10 @@
         <v>132</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>44</v>
       </c>
@@ -4001,10 +4001,10 @@
         <v>132</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>144</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>145</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>77</v>
       </c>
@@ -4074,20 +4074,20 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -4097,7 +4097,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>118</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>119</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>139</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>140</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>141</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>142</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>153</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>78</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>79</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>99</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>123</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>124</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>125</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>126</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>127</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>101</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>102</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>63</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>64</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>65</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>103</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>104</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>43</v>
       </c>
@@ -4834,10 +4834,10 @@
         <v>132</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>44</v>
       </c>
@@ -4854,10 +4854,10 @@
         <v>132</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>144</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>145</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>77</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>154</v>
       </c>
@@ -4947,20 +4947,20 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -4970,7 +4970,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>118</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>119</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>157</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>158</v>
       </c>
@@ -5287,10 +5287,10 @@
         <v>132</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>141</v>
       </c>
@@ -5307,10 +5307,10 @@
         <v>132</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>142</v>
       </c>
@@ -5327,10 +5327,10 @@
         <v>132</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>39</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>78</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>99</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>123</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>124</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>125</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>126</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>127</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>101</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>102</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>63</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>65</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>103</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>104</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>43</v>
       </c>
@@ -5687,10 +5687,10 @@
         <v>132</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>44</v>
       </c>
@@ -5707,10 +5707,10 @@
         <v>132</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>144</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>156</v>
       </c>
@@ -5760,20 +5760,20 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -5783,7 +5783,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>85</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>86</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>72</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>73</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>74</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>88</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>75</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>89</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>76</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>77</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>78</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>99</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>80</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>81</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>101</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>102</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>63</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>64</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>65</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>103</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>104</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>82</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>43</v>
       </c>
@@ -6460,10 +6460,10 @@
         <v>52</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>44</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>52</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -6493,20 +6493,20 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -6516,7 +6516,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>85</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>86</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>72</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>73</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>74</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>88</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>75</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>89</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>76</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>77</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>78</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>99</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>80</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>81</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>101</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>102</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>63</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>64</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>65</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>103</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>104</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>82</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>43</v>
       </c>
@@ -7193,10 +7193,10 @@
         <v>52</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>44</v>
       </c>
@@ -7213,10 +7213,10 @@
         <v>52</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>110</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>111</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>112</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>113</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>114</v>
       </c>
@@ -7326,20 +7326,20 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -7349,7 +7349,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>72</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>73</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>74</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>161</v>
       </c>
@@ -7546,10 +7546,10 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>39</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>76</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>78</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>79</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>99</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>80</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>81</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>101</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>102</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>63</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>64</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>65</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>103</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>104</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>69</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>43</v>
       </c>
@@ -7926,10 +7926,10 @@
         <v>52</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>44</v>
       </c>
@@ -7946,13 +7946,13 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="8"/>
     </row>
   </sheetData>
@@ -7965,20 +7965,20 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -7988,7 +7988,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>72</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>73</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>74</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>161</v>
       </c>
@@ -8185,10 +8185,10 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>39</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>76</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>78</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>79</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>99</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>80</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>81</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>101</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>102</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>63</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>64</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>65</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>103</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>104</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>69</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>43</v>
       </c>
@@ -8565,10 +8565,10 @@
         <v>52</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>44</v>
       </c>
@@ -8585,13 +8585,13 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="8"/>
     </row>
   </sheetData>
@@ -8604,20 +8604,20 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -8627,7 +8627,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>72</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>73</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>74</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>161</v>
       </c>
@@ -8824,10 +8824,10 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>164</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>39</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>76</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>78</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>79</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>99</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>80</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>81</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>101</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>102</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>63</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>64</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>103</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>104</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>69</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>43</v>
       </c>
@@ -9224,10 +9224,10 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>44</v>
       </c>
@@ -9244,13 +9244,13 @@
         <v>52</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="8"/>
     </row>
   </sheetData>
@@ -9262,21 +9262,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F037272-C335-49D9-940E-9503A9473373}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="110.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="110.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -9286,7 +9286,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>47</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>31</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>33</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>58</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>38</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>63</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>64</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>65</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>40</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>41</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>42</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>43</v>
       </c>
@@ -9703,10 +9703,10 @@
         <v>52</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>44</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>52</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -9736,20 +9736,20 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -9759,7 +9759,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>72</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>73</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>74</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>161</v>
       </c>
@@ -9956,10 +9956,10 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>166</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>39</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>76</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>78</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>79</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>99</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>80</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>81</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>101</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>102</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>63</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>64</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>103</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>104</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>69</v>
       </c>
@@ -10339,7 +10339,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>43</v>
       </c>
@@ -10356,10 +10356,10 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>44</v>
       </c>
@@ -10376,13 +10376,13 @@
         <v>52</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="8"/>
     </row>
   </sheetData>
@@ -10398,17 +10398,17 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -10418,7 +10418,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -10458,7 +10458,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -10538,7 +10538,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>167</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>168</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>169</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>69</v>
       </c>
@@ -10618,43 +10618,43 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -10662,22 +10662,22 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -10685,19 +10685,19 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="4:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D35" s="8"/>
     </row>
   </sheetData>
@@ -10713,17 +10713,17 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -10733,7 +10733,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>167</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>168</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>169</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>69</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>173</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>174</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>127</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>101</v>
       </c>
@@ -11013,7 +11013,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>102</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>63</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>64</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>65</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>103</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>104</v>
       </c>
@@ -11133,13 +11133,13 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -11147,22 +11147,22 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -11170,19 +11170,19 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="4:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D35" s="8"/>
     </row>
   </sheetData>
@@ -11198,17 +11198,17 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -11218,7 +11218,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -11278,7 +11278,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>175</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>176</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>177</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>174</v>
       </c>
@@ -11398,7 +11398,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>69</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>178</v>
       </c>
@@ -11438,16 +11438,16 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D16" s="8"/>
     </row>
   </sheetData>
@@ -11463,17 +11463,17 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -11483,7 +11483,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -11503,7 +11503,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>63</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>183</v>
       </c>
@@ -11623,7 +11623,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -11643,7 +11643,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>81</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>101</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>102</v>
       </c>
@@ -11703,7 +11703,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>63</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>64</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>65</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>103</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>104</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>69</v>
       </c>
@@ -11832,21 +11832,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52607BE3-DC00-46A5-B151-3ABD17EEE6D5}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -11856,7 +11856,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -11876,7 +11876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>127</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>101</v>
       </c>
@@ -12036,7 +12036,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>102</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>63</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>65</v>
       </c>
@@ -12116,7 +12116,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>103</v>
       </c>
@@ -12136,7 +12136,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>104</v>
       </c>
@@ -12169,17 +12169,17 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -12189,7 +12189,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -12209,7 +12209,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -12289,7 +12289,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>215</v>
       </c>
@@ -12309,7 +12309,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>216</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>218</v>
       </c>
@@ -12349,7 +12349,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>219</v>
       </c>
@@ -12369,7 +12369,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>71</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>72</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>73</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>74</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>88</v>
       </c>
@@ -12502,17 +12502,17 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -12522,7 +12522,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>68</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>188</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>63</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>185</v>
       </c>
@@ -12642,7 +12642,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>189</v>
       </c>
@@ -12662,7 +12662,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>191</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>192</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>39</v>
       </c>
@@ -12722,7 +12722,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>72</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>73</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
@@ -12802,7 +12802,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>81</v>
       </c>
@@ -12862,7 +12862,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>101</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>102</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -12922,7 +12922,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>64</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>103</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>104</v>
       </c>
@@ -13002,7 +13002,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>186</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>69</v>
       </c>
@@ -13055,17 +13055,17 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="91.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="91.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -13075,7 +13075,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>197</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>257</v>
       </c>
@@ -13195,7 +13195,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>74</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>199</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>101</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>102</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>63</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>65</v>
       </c>
@@ -13335,7 +13335,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>103</v>
       </c>
@@ -13355,7 +13355,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>104</v>
       </c>
@@ -13375,7 +13375,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>174</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>127</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>101</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>102</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -13475,7 +13475,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>64</v>
       </c>
@@ -13495,7 +13495,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>103</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>104</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>74</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>82</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>198</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>199</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>101</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>102</v>
       </c>
@@ -13675,7 +13675,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>63</v>
       </c>
@@ -13695,7 +13695,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
@@ -13715,7 +13715,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>65</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>103</v>
       </c>
@@ -13755,7 +13755,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>104</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>69</v>
       </c>
@@ -13795,7 +13795,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>186</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>52</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -13828,17 +13828,17 @@
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -13848,7 +13848,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -13868,7 +13868,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -13888,7 +13888,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -13908,7 +13908,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -13928,7 +13928,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>197</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>257</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>74</v>
       </c>
@@ -13988,7 +13988,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>199</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>101</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>102</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>63</v>
       </c>
@@ -14068,7 +14068,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>65</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>103</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>104</v>
       </c>
@@ -14148,7 +14148,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>174</v>
       </c>
@@ -14168,7 +14168,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>127</v>
       </c>
@@ -14188,7 +14188,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>101</v>
       </c>
@@ -14208,7 +14208,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>102</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -14248,7 +14248,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>64</v>
       </c>
@@ -14268,7 +14268,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
@@ -14288,7 +14288,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>103</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>104</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>74</v>
       </c>
@@ -14348,7 +14348,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>82</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>198</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>199</v>
       </c>
@@ -14408,7 +14408,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>101</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>102</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>63</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>65</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>103</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>104</v>
       </c>
@@ -14548,7 +14548,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>174</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>127</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>101</v>
       </c>
@@ -14608,7 +14608,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>102</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>63</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>64</v>
       </c>
@@ -14668,7 +14668,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>65</v>
       </c>
@@ -14688,7 +14688,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>103</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>104</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>69</v>
       </c>
@@ -14748,7 +14748,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>186</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>52</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -14781,17 +14781,17 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -14801,7 +14801,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -14821,7 +14821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -14841,7 +14841,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -14861,7 +14861,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -14881,7 +14881,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>197</v>
       </c>
@@ -14901,7 +14901,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>257</v>
       </c>
@@ -14921,7 +14921,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -14941,7 +14941,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>199</v>
       </c>
@@ -14961,7 +14961,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>101</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>102</v>
       </c>
@@ -15001,7 +15001,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>63</v>
       </c>
@@ -15021,7 +15021,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -15041,7 +15041,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>65</v>
       </c>
@@ -15061,7 +15061,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>103</v>
       </c>
@@ -15081,7 +15081,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>104</v>
       </c>
@@ -15101,7 +15101,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>174</v>
       </c>
@@ -15121,7 +15121,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>127</v>
       </c>
@@ -15141,7 +15141,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>101</v>
       </c>
@@ -15161,7 +15161,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>102</v>
       </c>
@@ -15181,7 +15181,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -15201,7 +15201,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>64</v>
       </c>
@@ -15221,7 +15221,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
@@ -15241,7 +15241,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>103</v>
       </c>
@@ -15261,7 +15261,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>104</v>
       </c>
@@ -15281,7 +15281,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>74</v>
       </c>
@@ -15301,7 +15301,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>82</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>198</v>
       </c>
@@ -15341,7 +15341,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>199</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>101</v>
       </c>
@@ -15381,7 +15381,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>102</v>
       </c>
@@ -15401,7 +15401,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>63</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>65</v>
       </c>
@@ -15461,7 +15461,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>103</v>
       </c>
@@ -15481,7 +15481,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>104</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>77</v>
       </c>
@@ -15521,7 +15521,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>69</v>
       </c>
@@ -15551,20 +15551,20 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15574,7 +15574,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -15594,7 +15594,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -15634,7 +15634,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
@@ -15654,7 +15654,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -15674,7 +15674,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>118</v>
       </c>
@@ -15694,7 +15694,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -15734,7 +15734,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -15774,7 +15774,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -15794,7 +15794,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -15814,7 +15814,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>119</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>121</v>
       </c>
@@ -15874,7 +15874,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>122</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>78</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>79</v>
       </c>
@@ -15974,7 +15974,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>99</v>
       </c>
@@ -15994,7 +15994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>123</v>
       </c>
@@ -16014,7 +16014,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>124</v>
       </c>
@@ -16034,7 +16034,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>125</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>126</v>
       </c>
@@ -16074,7 +16074,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>127</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>101</v>
       </c>
@@ -16114,7 +16114,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>102</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>63</v>
       </c>
@@ -16154,7 +16154,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>64</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>65</v>
       </c>
@@ -16194,7 +16194,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>103</v>
       </c>
@@ -16214,7 +16214,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>104</v>
       </c>
@@ -16234,7 +16234,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>43</v>
       </c>
@@ -16251,10 +16251,10 @@
         <v>132</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>44</v>
       </c>
@@ -16271,10 +16271,10 @@
         <v>132</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>77</v>
       </c>
@@ -16294,7 +16294,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>128</v>
       </c>
@@ -16314,7 +16314,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>129</v>
       </c>
@@ -16344,20 +16344,20 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -16367,7 +16367,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -16387,7 +16387,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -16407,7 +16407,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -16427,7 +16427,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
@@ -16447,7 +16447,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -16467,7 +16467,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>118</v>
       </c>
@@ -16487,7 +16487,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -16507,7 +16507,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -16527,7 +16527,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -16547,7 +16547,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -16567,7 +16567,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -16587,7 +16587,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -16607,7 +16607,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>119</v>
       </c>
@@ -16627,7 +16627,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -16647,7 +16647,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>138</v>
       </c>
@@ -16667,7 +16667,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
@@ -16687,7 +16687,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>39</v>
       </c>
@@ -16707,7 +16707,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>78</v>
       </c>
@@ -16727,7 +16727,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>79</v>
       </c>
@@ -16747,7 +16747,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>99</v>
       </c>
@@ -16767,7 +16767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>123</v>
       </c>
@@ -16787,7 +16787,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>124</v>
       </c>
@@ -16807,7 +16807,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>125</v>
       </c>
@@ -16827,7 +16827,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>126</v>
       </c>
@@ -16847,7 +16847,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>127</v>
       </c>
@@ -16867,7 +16867,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>101</v>
       </c>
@@ -16887,7 +16887,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>102</v>
       </c>
@@ -16907,7 +16907,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>63</v>
       </c>
@@ -16927,7 +16927,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>64</v>
       </c>
@@ -16947,7 +16947,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>65</v>
       </c>
@@ -16967,7 +16967,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>103</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>104</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>43</v>
       </c>
@@ -17024,10 +17024,10 @@
         <v>132</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>44</v>
       </c>
@@ -17044,10 +17044,10 @@
         <v>132</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>77</v>
       </c>
@@ -17067,7 +17067,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>128</v>
       </c>
@@ -17087,7 +17087,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>129</v>
       </c>
@@ -17117,20 +17117,20 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -17140,7 +17140,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -17160,7 +17160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -17180,7 +17180,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -17200,7 +17200,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
@@ -17220,7 +17220,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -17240,7 +17240,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>118</v>
       </c>
@@ -17260,7 +17260,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -17280,7 +17280,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -17300,7 +17300,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -17320,7 +17320,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -17340,7 +17340,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -17360,7 +17360,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -17380,7 +17380,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>119</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -17420,7 +17420,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>139</v>
       </c>
@@ -17440,7 +17440,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>140</v>
       </c>
@@ -17460,7 +17460,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>141</v>
       </c>
@@ -17477,10 +17477,10 @@
         <v>132</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>142</v>
       </c>
@@ -17497,10 +17497,10 @@
         <v>132</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>39</v>
       </c>
@@ -17540,7 +17540,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>78</v>
       </c>
@@ -17560,7 +17560,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -17580,7 +17580,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>99</v>
       </c>
@@ -17600,7 +17600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>123</v>
       </c>
@@ -17620,7 +17620,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>124</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>125</v>
       </c>
@@ -17660,7 +17660,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>126</v>
       </c>
@@ -17680,7 +17680,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>127</v>
       </c>
@@ -17700,7 +17700,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>101</v>
       </c>
@@ -17720,7 +17720,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>102</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>63</v>
       </c>
@@ -17760,7 +17760,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
@@ -17780,7 +17780,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>65</v>
       </c>
@@ -17800,7 +17800,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>103</v>
       </c>
@@ -17820,7 +17820,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>104</v>
       </c>
@@ -17840,7 +17840,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>43</v>
       </c>
@@ -17857,10 +17857,10 @@
         <v>132</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>44</v>
       </c>
@@ -17877,10 +17877,10 @@
         <v>132</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>144</v>
       </c>
@@ -17900,7 +17900,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>145</v>
       </c>
@@ -17920,7 +17920,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>77</v>
       </c>
@@ -17946,6 +17946,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088F26AC8FFACDA459ED97BA33A2EDD09" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d100541493c99754ab38f69507ec9314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dbdd298-def3-48d5-b10a-519f5ec7909f" xmlns:ns3="b7ca5a17-62b2-45ee-a209-788463db48b0" xmlns:ns4="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f133327a4eb5a6191fb38303f059c04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6dbdd298-def3-48d5-b10a-519f5ec7909f"/>
@@ -18205,16 +18214,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDFEA48-FAC4-456B-938A-80A9A9627A87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18232,12 +18240,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>